--- a/data/trans_orig/P33B_R5-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R5-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21632</v>
+        <v>21655</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01691625384683586</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0530465138203693</v>
+        <v>0.05310264146469646</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>11849</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4497</v>
+        <v>5156</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23333</v>
+        <v>23824</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03268452064331794</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01240488062502731</v>
+        <v>0.01422353697367905</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06436461935790151</v>
+        <v>0.06571841065301053</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -783,19 +783,19 @@
         <v>18747</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8380</v>
+        <v>8622</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36927</v>
+        <v>36220</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02433693170688672</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01087874673850055</v>
+        <v>0.01119258147986316</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04793874274038747</v>
+        <v>0.04701976296998122</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>400895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>386161</v>
+        <v>386138</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -821,7 +821,7 @@
         <v>0.9830837461531642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.946953486179633</v>
+        <v>0.9468973585353037</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>350663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>339179</v>
+        <v>338688</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>358015</v>
+        <v>357356</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9673154793566822</v>
+        <v>0.9673154793566819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9356353806420985</v>
+        <v>0.9342815893469896</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9875951193749727</v>
+        <v>0.9857764630263212</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>371</v>
@@ -854,19 +854,19 @@
         <v>751558</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>733378</v>
+        <v>734085</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>761925</v>
+        <v>761683</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9756630682931133</v>
+        <v>0.9756630682931132</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9520612572596128</v>
+        <v>0.9529802370300184</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9891212532614996</v>
+        <v>0.9888074185201369</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>5440</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1636</v>
+        <v>1351</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13230</v>
+        <v>12451</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01140634934675672</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003430685680619024</v>
+        <v>0.002832672812560579</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02774286512187688</v>
+        <v>0.02610788972114001</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -979,19 +979,19 @@
         <v>15382</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8306</v>
+        <v>8632</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24987</v>
+        <v>26050</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0306970108019076</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01657513032905842</v>
+        <v>0.01722592691471968</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04986627375636607</v>
+        <v>0.05198762612636741</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -1000,19 +1000,19 @@
         <v>20821</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12229</v>
+        <v>12699</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31686</v>
+        <v>31355</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02129028350485186</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01250440488974348</v>
+        <v>0.01298507156323746</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03239932488857471</v>
+        <v>0.0320609269921855</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>471450</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>463660</v>
+        <v>464439</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475254</v>
+        <v>475539</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9885936506532431</v>
+        <v>0.9885936506532433</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9722571348781235</v>
+        <v>0.9738921102788599</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.996569314319381</v>
+        <v>0.9971673271874394</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -1050,19 +1050,19 @@
         <v>485701</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>476096</v>
+        <v>475033</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>492777</v>
+        <v>492451</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9693029891980923</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9501337262436338</v>
+        <v>0.9480123738736328</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9834248696709416</v>
+        <v>0.9827740730852803</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>744</v>
@@ -1071,19 +1071,19 @@
         <v>957152</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>946287</v>
+        <v>946618</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>965744</v>
+        <v>965274</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9787097164951482</v>
+        <v>0.978709716495148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9676006751114257</v>
+        <v>0.9679390730078147</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9874955951102568</v>
+        <v>0.9870149284367626</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>21761</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13787</v>
+        <v>13676</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32939</v>
+        <v>32681</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03505150068204283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02220708735374095</v>
+        <v>0.02202758628882984</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05305511595617932</v>
+        <v>0.05263956219490933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -1196,19 +1196,19 @@
         <v>39615</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29949</v>
+        <v>29823</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51386</v>
+        <v>51114</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06367516534048644</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04813915928932472</v>
+        <v>0.0479368948237606</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08259549580286395</v>
+        <v>0.08215917220019922</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -1217,19 +1217,19 @@
         <v>61376</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48260</v>
+        <v>49157</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75484</v>
+        <v>76966</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04937832938883241</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03882639663024846</v>
+        <v>0.03954773459434169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06072815605315902</v>
+        <v>0.06192104390451889</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>599076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>587898</v>
+        <v>588156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>607050</v>
+        <v>607161</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9649484993179573</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9469448840438204</v>
+        <v>0.9473604378050914</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.977792912646259</v>
+        <v>0.9779724137111703</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>793</v>
@@ -1267,19 +1267,19 @@
         <v>582524</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>570753</v>
+        <v>571025</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>592190</v>
+        <v>592316</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9363248346595135</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.917404504197136</v>
+        <v>0.9178408277998006</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9518608407106754</v>
+        <v>0.9520631051762393</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1320</v>
@@ -1288,19 +1288,19 @@
         <v>1181600</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1167492</v>
+        <v>1166010</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1194716</v>
+        <v>1193819</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9506216706111674</v>
+        <v>0.9506216706111679</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9392718439468412</v>
+        <v>0.9380789560954812</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9611736033697514</v>
+        <v>0.9604522654056583</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>37266</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26357</v>
+        <v>26650</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52000</v>
+        <v>52083</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05318992241910059</v>
+        <v>0.05318992241910058</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03762002920695733</v>
+        <v>0.03803805417392051</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.074220630851814</v>
+        <v>0.07433818017945894</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -1413,19 +1413,19 @@
         <v>70716</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58354</v>
+        <v>58227</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84389</v>
+        <v>84584</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09601693771497176</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07923248388944044</v>
+        <v>0.07905964726304592</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1145816664326668</v>
+        <v>0.1148465783507416</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -1434,19 +1434,19 @@
         <v>107982</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89517</v>
+        <v>92322</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>126775</v>
+        <v>126656</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07513802331612614</v>
+        <v>0.07513802331612615</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06228918038474137</v>
+        <v>0.06424148213955125</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08821529983285385</v>
+        <v>0.08813261501831741</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>663351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>648617</v>
+        <v>648534</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>674260</v>
+        <v>673967</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9468100775808995</v>
+        <v>0.9468100775808994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.925779369148186</v>
+        <v>0.9256618198205412</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9623799707930428</v>
+        <v>0.9619619458260796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1035</v>
@@ -1484,19 +1484,19 @@
         <v>665779</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>652106</v>
+        <v>651911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>678141</v>
+        <v>678268</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9039830622850282</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8854183335673332</v>
+        <v>0.8851534216492586</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9207675161105594</v>
+        <v>0.9209403527369541</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1667</v>
@@ -1505,19 +1505,19 @@
         <v>1329130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1310337</v>
+        <v>1310456</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1347595</v>
+        <v>1344790</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9248619766838737</v>
+        <v>0.9248619766838739</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9117847001671462</v>
+        <v>0.9118673849816825</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9377108196152586</v>
+        <v>0.9357585178604486</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>57581</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45084</v>
+        <v>44532</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71638</v>
+        <v>71808</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09481796628322786</v>
+        <v>0.09481796628322788</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07423985976024659</v>
+        <v>0.07333141737585097</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1179661256496142</v>
+        <v>0.1182458014632711</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>191</v>
@@ -1630,19 +1630,19 @@
         <v>121041</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>106377</v>
+        <v>104536</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>136082</v>
+        <v>137388</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1990364833865141</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1749235251472425</v>
+        <v>0.1718961061206739</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2237698483576003</v>
+        <v>0.2259180346092745</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>254</v>
@@ -1651,19 +1651,19 @@
         <v>178621</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>160154</v>
+        <v>158605</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>200784</v>
+        <v>201349</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1469639041648766</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1317693898692696</v>
+        <v>0.1304950097800983</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.16519829175276</v>
+        <v>0.1656634915817831</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>549696</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>535639</v>
+        <v>535469</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>562193</v>
+        <v>562745</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9051820337167722</v>
+        <v>0.9051820337167724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8820338743503858</v>
+        <v>0.8817541985367292</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9257601402397533</v>
+        <v>0.9266685826241489</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>810</v>
@@ -1701,19 +1701,19 @@
         <v>487092</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>472051</v>
+        <v>470745</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>501756</v>
+        <v>503597</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8009635166134859</v>
+        <v>0.8009635166134862</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7762301516423997</v>
+        <v>0.7740819653907255</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8250764748527574</v>
+        <v>0.8281038938793261</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1408</v>
@@ -1722,19 +1722,19 @@
         <v>1036789</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1014626</v>
+        <v>1014061</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1055256</v>
+        <v>1056805</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8530360958351233</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.83480170824724</v>
+        <v>0.8343365084182167</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8682306101307304</v>
+        <v>0.8695049902199017</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>48748</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39005</v>
+        <v>38522</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60573</v>
+        <v>60906</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1197511367364467</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09581533799437944</v>
+        <v>0.09462924915721782</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1487989271525888</v>
+        <v>0.1496176299294102</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>155</v>
@@ -1847,19 +1847,19 @@
         <v>85460</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73974</v>
+        <v>74126</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98132</v>
+        <v>97921</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1948925698549348</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1686979857197824</v>
+        <v>0.1690456165402538</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2237919022788778</v>
+        <v>0.223309732717924</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>225</v>
@@ -1868,19 +1868,19 @@
         <v>134208</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>118886</v>
+        <v>118011</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>151921</v>
+        <v>151644</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1587178093133565</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1405971895075513</v>
+        <v>0.1395632228391462</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1796655918155912</v>
+        <v>0.1793379766274936</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>358332</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>346507</v>
+        <v>346174</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>368075</v>
+        <v>368558</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8802488632635532</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8512010728474112</v>
+        <v>0.8503823700705897</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9041846620056205</v>
+        <v>0.9053707508427823</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>671</v>
@@ -1918,19 +1918,19 @@
         <v>353037</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>340365</v>
+        <v>340576</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>364523</v>
+        <v>364371</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8051074301450651</v>
+        <v>0.8051074301450653</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.776208097721122</v>
+        <v>0.776690267282076</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8313020142802177</v>
+        <v>0.8309543834597464</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1171</v>
@@ -1939,19 +1939,19 @@
         <v>711369</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>693656</v>
+        <v>693933</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>726691</v>
+        <v>727566</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8412821906866433</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8203344081844087</v>
+        <v>0.8206620233725066</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8594028104924486</v>
+        <v>0.8604367771608539</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>59882</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49223</v>
+        <v>48978</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72521</v>
+        <v>72406</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1930452849553837</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1586836976268361</v>
+        <v>0.1578920391586599</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2337885339673593</v>
+        <v>0.2334188223481126</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>239</v>
@@ -2064,19 +2064,19 @@
         <v>130175</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>114753</v>
+        <v>116232</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>144890</v>
+        <v>145085</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2805408986950388</v>
+        <v>0.2805408986950389</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2473048987374035</v>
+        <v>0.250492019112313</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3122543717512121</v>
+        <v>0.3126748054508248</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>330</v>
@@ -2085,19 +2085,19 @@
         <v>190057</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>171103</v>
+        <v>173181</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>209995</v>
+        <v>210733</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2454845792220615</v>
+        <v>0.2454845792220614</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2210036882355298</v>
+        <v>0.2236865775266506</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2712368538538051</v>
+        <v>0.272191161022219</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>250316</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>237677</v>
+        <v>237792</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>260975</v>
+        <v>261220</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8069547150446161</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7662114660326406</v>
+        <v>0.7665811776518873</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8413163023731639</v>
+        <v>0.8421079608413401</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>641</v>
@@ -2135,19 +2135,19 @@
         <v>333838</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>319123</v>
+        <v>318928</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>349260</v>
+        <v>347781</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.719459101304961</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.687745628248788</v>
+        <v>0.6873251945491752</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7526951012625968</v>
+        <v>0.7495079808876872</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1008</v>
@@ -2156,19 +2156,19 @@
         <v>584154</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>564216</v>
+        <v>563478</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>603108</v>
+        <v>601030</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7545154207779385</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7287631461461949</v>
+        <v>0.727808838977781</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7789963117644704</v>
+        <v>0.7763134224733494</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>237576</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>209598</v>
+        <v>209445</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>270819</v>
+        <v>268189</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06728886791613733</v>
+        <v>0.06728886791613735</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.059364567372551</v>
+        <v>0.05932125314776258</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07670424878315606</v>
+        <v>0.07595926641736855</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>763</v>
@@ -2281,19 +2281,19 @@
         <v>474236</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>440352</v>
+        <v>441141</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>508159</v>
+        <v>508935</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1270432282657868</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1179660631391724</v>
+        <v>0.1181773772745416</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1361308690695757</v>
+        <v>0.136338579129646</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1045</v>
@@ -2302,19 +2302,19 @@
         <v>711812</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>666690</v>
+        <v>670244</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>756162</v>
+        <v>760570</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0979976729734347</v>
+        <v>0.09799767297343469</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0917854513726757</v>
+        <v>0.09227477570672978</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1041034884735832</v>
+        <v>0.1047102960569844</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>3293117</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3259874</v>
+        <v>3262504</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3321095</v>
+        <v>3321248</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9327111320838628</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9232957512168443</v>
+        <v>0.9240407335826312</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.940635432627449</v>
+        <v>0.9406787468522375</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4597</v>
@@ -2352,19 +2352,19 @@
         <v>3258637</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3224714</v>
+        <v>3223938</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3292521</v>
+        <v>3291732</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.872956771734213</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8638691309304242</v>
+        <v>0.8636614208703539</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8820339368608274</v>
+        <v>0.8818226227254585</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7689</v>
@@ -2373,19 +2373,19 @@
         <v>6551753</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6507403</v>
+        <v>6502995</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6596875</v>
+        <v>6593321</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9020023270265655</v>
+        <v>0.9020023270265654</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8958965115264169</v>
+        <v>0.8952897039430155</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9082145486273245</v>
+        <v>0.9077252242932702</v>
       </c>
     </row>
     <row r="27">
